--- a/cosmx-transcriptomics/v2.0.0/cosmx-transcriptomics-v2.0.0.xlsx
+++ b/cosmx-transcriptomics/v2.0.0/cosmx-transcriptomics-v2.0.0.xlsx
@@ -247,20 +247,6 @@
     </comment>
     <comment ref="AF1" authorId="1">
       <text>
-        <t>A semicolon separated list of non-shared files to be included in the dataset.
-The path assumes the files are located in the "TOP/non-global/" directory. For
-example, for the file is
-TOP/non-global/lab_processed/images/1-tissue-boundary.geojson the value of this
-field would be "./lab_processed/images/1-tissue-boundary.geojson". After ingest,
-these files will be copied to the appropriate locations within the respective
-dataset directory tree. This field is used for internal HuBMAP processing.
-Examples for GeoMx and PhenoCycler are provided in the File Locations
-documentation:
-https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee</t>
-      </text>
-    </comment>
-    <comment ref="AG1" authorId="1">
-      <text>
         <t>(Required) The string that serves as the definitive identifier for the metadata
 schema version and is readily interpretable by computers for data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
@@ -271,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="439">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -291,6 +277,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
   </si>
   <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>SNARE-seq2</t>
   </si>
   <si>
@@ -327,6 +319,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
+  </si>
+  <si>
     <t>Xenium</t>
   </si>
   <si>
@@ -336,7 +334,7 @@
     <t>Stereo-seq</t>
   </si>
   <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000434</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
   </si>
   <si>
     <t>Visium (with probes)</t>
@@ -363,6 +361,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -489,6 +493,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
+    <t>Pixel-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000449</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
@@ -507,6 +517,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -537,6 +553,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
   </si>
   <si>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
+  </si>
+  <si>
     <t>CosMx Transcriptomics</t>
   </si>
   <si>
@@ -681,6 +703,12 @@
     <t>https://identifiers.org/RRID:SCR_027007</t>
   </si>
   <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -795,12 +823,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -834,6 +874,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -942,6 +988,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1020,6 +1072,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -1056,6 +1114,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1170,6 +1234,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1182,6 +1252,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1206,6 +1282,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1338,6 +1420,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
   </si>
   <si>
+    <t>10x Genomics; Xenium Mouse Multi-Tissue Atlassing Panel; PN 1000627</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000442</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
   </si>
   <si>
@@ -1380,12 +1468,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000395</t>
   </si>
   <si>
+    <t>10x Genomics; Xenium Custom Gene Expression Panel (up to 50 genes); PN 1000464</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000445</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Custom Gene Expression Panel (51-100 genes); PN 1000561</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000444</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 64 rxns; PN 1000456</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
   </si>
   <si>
+    <t>10x Genomics; Xenium Human Colon Gene Expression Panel; PN 1000642</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000446</t>
+  </si>
+  <si>
     <t>NanoString Technologies; CosMx Human Immuno-Oncology Panel (Protein, 64 Plex); PN CMX-H-IOP-64P-P</t>
   </si>
   <si>
@@ -1404,6 +1510,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
   </si>
   <si>
+    <t>10x Genomics; Xenium Human Lung Gene Expression Panel; PN 1000601</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000443</t>
+  </si>
+  <si>
     <t>NanoString Technologies; CosMx Human Universal Cell Characterization Panel (RNA, 1000 Plex); PN CMX-H-USCP-1KP-R</t>
   </si>
   <si>
@@ -1437,9 +1549,6 @@
     <t>anatomical_structure_id</t>
   </si>
   <si>
-    <t>non_global_files</t>
-  </si>
-  <si>
     <t>metadata_schema_id</t>
   </si>
   <si>
@@ -1458,7 +1567,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-06-06T08:22:19-07:00</t>
+    <t>2025-07-24T21:05:36-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1517,7 +1626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
@@ -1554,7 +1663,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1565,7 +1673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1602,8 +1710,7 @@
     <col min="29" max="29" style="30" width="7.4296875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" style="31" width="21.44921875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" style="32" width="19.23828125" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" style="33" width="13.33984375" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" style="34" width="16.91796875" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" style="33" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1620,105 +1727,102 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>388</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>389</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="AG2" t="s" s="34">
-        <v>390</v>
+        <v>100</v>
+      </c>
+      <c r="AF2" t="s" s="33">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="22">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$42</formula1>
+      <formula1>'dataset_type'!$A$1:$A$48</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1727,10 +1831,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$75</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1783,7 +1887,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$18</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1809,10 +1913,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -1830,10 +1934,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -1851,18 +1955,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +1976,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1880,146 +1984,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>348</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>350</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>352</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>354</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>356</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>358</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>362</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>364</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>366</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>368</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>370</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>372</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>374</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>376</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>378</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>380</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>382</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -2037,12 +2181,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2066,30 +2210,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>396</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>397</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +2243,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2439,6 +2583,54 @@
       </c>
       <c r="B42" t="s" s="0">
         <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2456,130 +2648,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2597,12 +2789,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2612,7 +2804,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2620,218 +2812,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2841,7 +3057,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2849,546 +3065,602 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>278</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>286</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>288</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>292</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>294</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>154</v>
+        <v>315</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>155</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>298</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>304</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>310</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>314</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3406,42 +3678,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>320</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>322</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3459,26 +3731,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>320</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>322</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3496,18 +3768,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>334</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>336</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/cosmx-transcriptomics/v2.0.0/cosmx-transcriptomics-v2.0.0.xlsx
+++ b/cosmx-transcriptomics/v2.0.0/cosmx-transcriptomics-v2.0.0.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="442">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -277,48 +277,168 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
   </si>
   <si>
+    <t>SNARE-seq2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>Olink</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
   </si>
   <si>
-    <t>SNARE-seq2</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
-  </si>
-  <si>
     <t>FACS</t>
   </si>
   <si>
@@ -331,42 +451,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
-    <t>Seq-Scope</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -397,16 +481,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -415,30 +493,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
-    <t>CosMx Proteomics</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -469,18 +529,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -493,18 +541,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>Pixel-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000449</t>
-  </si>
-  <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -517,51 +553,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>4i</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
-  </si>
-  <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
-  </si>
-  <si>
     <t>MPLEx</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
-    <t>CosMx Transcriptomics</t>
-  </si>
-  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -1426,6 +1429,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000442</t>
   </si>
   <si>
+    <t>NanoString Technologies; CosMx Mouse Neuroscience Panel (RNA, 1000 Plex); PN CMX-M-NEUP-R</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000452</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
   </si>
   <si>
@@ -1567,7 +1576,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-07-24T21:05:36-07:00</t>
+    <t>2025-08-15T09:10:02-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1727,102 +1736,102 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="s" s="33">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="22">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$48</formula1>
+      <formula1>'dataset_type'!$A$1:$A$49</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1887,7 +1896,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$23</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$24</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1913,10 +1922,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -1934,10 +1943,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -1955,18 +1964,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1985,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1984,186 +1993,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>424</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -2181,12 +2198,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2210,30 +2227,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -2243,7 +2260,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2631,6 +2648,14 @@
       </c>
       <c r="B48" t="s" s="0">
         <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2648,130 +2673,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2789,12 +2814,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2812,242 +2837,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3065,602 +3090,602 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3678,42 +3703,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3731,26 +3756,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3768,18 +3793,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/cosmx-transcriptomics/v2.0.0/cosmx-transcriptomics-v2.0.0.xlsx
+++ b/cosmx-transcriptomics/v2.0.0/cosmx-transcriptomics-v2.0.0.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="450">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -319,6 +319,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>CosMx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -331,240 +337,237 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
   </si>
   <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
+  </si>
+  <si>
+    <t>Auto-fluorescence</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
+  </si>
+  <si>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
+  </si>
+  <si>
+    <t>Xenium</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
+  </si>
+  <si>
+    <t>SIMS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
+  </si>
+  <si>
+    <t>Cell DIVE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000159</t>
+  </si>
+  <si>
+    <t>CODEX</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
+  </si>
+  <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
+  </si>
+  <si>
+    <t>MALDI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
+  </si>
+  <si>
+    <t>2D Imaging Mass Cytometry</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
+  </si>
+  <si>
+    <t>Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
+  </si>
+  <si>
+    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
+  </si>
+  <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
+    <t>RNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
+  </si>
+  <si>
+    <t>nanoSPLITS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
+  </si>
+  <si>
+    <t>GeoMx (nCounter)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
+  </si>
+  <si>
+    <t>RNAseq (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
+  </si>
+  <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
+  </si>
+  <si>
     <t>CosMx Transcriptomics</t>
   </si>
   <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
-  </si>
-  <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
-    <t>CosMx Proteomics</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
-  </si>
-  <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>Visium HD</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
-    <t>4i</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
-  </si>
-  <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
-  </si>
-  <si>
-    <t>Olink</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
-  </si>
-  <si>
-    <t>MIBI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
-  </si>
-  <si>
-    <t>Auto-fluorescence</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
-  </si>
-  <si>
-    <t>FACS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
-  </si>
-  <si>
-    <t>Xenium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
-  </si>
-  <si>
-    <t>SIMS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
-  </si>
-  <si>
-    <t>Cell DIVE</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000159</t>
-  </si>
-  <si>
-    <t>CODEX</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
-  </si>
-  <si>
-    <t>GeoMx (NGS)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
-  </si>
-  <si>
-    <t>MUSIC</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
-  </si>
-  <si>
-    <t>Pixel-seqV2</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
-  </si>
-  <si>
-    <t>MALDI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
-  </si>
-  <si>
-    <t>2D Imaging Mass Cytometry</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
-  </si>
-  <si>
-    <t>Histology</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
-  </si>
-  <si>
-    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
-  </si>
-  <si>
-    <t>DART-FISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
-  </si>
-  <si>
-    <t>Resolve</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
-  </si>
-  <si>
-    <t>RNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
-  </si>
-  <si>
-    <t>nanoSPLITS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
-  </si>
-  <si>
-    <t>GeoMx (nCounter)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
-  </si>
-  <si>
-    <t>RNAseq (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
-  </si>
-  <si>
-    <t>MS Lipidomics</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
-  </si>
-  <si>
-    <t>MPLEx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
-  </si>
-  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -1213,6 +1216,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1399,54 +1405,120 @@
     <t>oligo_probe_panel</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell Fixed RNA Mouse Transcriptome Probe Kit, 64 rxns; PN 1000492</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000393</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Prime 5K Human Pan Tissue &amp; Pathways Panel; PN 1000724</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000426</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Mouse Multi-Tissue Atlassing Panel; PN 1000627</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000442</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit v2.0 - Small; PN 1000667</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000431</t>
+  </si>
+  <si>
+    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Human 6K Discovery Panel (RNA, 6175 Plex); PN 121500041</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000455</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Custom Gene Expression Panel (51-100 genes); PN 1000561</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000444</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 64 rxns; PN 1000456</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Human Colon Gene Expression Panel; PN 1000642</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000446</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Human Immuno-Oncology Panel (Protein, 64 Plex); PN CMX-H-IOP-64P-P</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000436</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit - Small; PN 1000365</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Hs WTX RNA Panel Kit, 2 slides: PN 121500047</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000453</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Human Lung Gene Expression Panel; PN 1000601</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000443</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Mouse Neuroscience Panel (Protein, 64 Plex); PN CMX-M-Neuro-64P-P</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000437</t>
+  </si>
+  <si>
     <t>NanoString Technologies; GeoMx Mouse Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-MsWTA-4</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000364</t>
   </si>
   <si>
-    <t>10x Genomics; Chromium Next GEM Single Cell Fixed RNA Mouse Transcriptome Probe Kit, 64 rxns; PN 1000492</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000393</t>
-  </si>
-  <si>
-    <t>10x Genomics; Xenium Prime 5K Human Pan Tissue &amp; Pathways Panel; PN 1000724</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000426</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
-  </si>
-  <si>
-    <t>10x Genomics; Xenium Mouse Multi-Tissue Atlassing Panel; PN 1000627</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000442</t>
-  </si>
-  <si>
     <t>NanoString Technologies; CosMx Mouse Neuroscience Panel (RNA, 1000 Plex); PN CMX-M-NEUP-R</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000452</t>
   </si>
   <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit v2.0 - Small; PN 1000667</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000431</t>
-  </si>
-  <si>
     <t>Custom</t>
   </si>
   <si>
@@ -1459,18 +1531,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
   </si>
   <si>
-    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
-  </si>
-  <si>
     <t>10x Genomics; Xenium Human Multi-Tissue and Cancer Panel v1; PN 1000626</t>
   </si>
   <si>
@@ -1483,66 +1543,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000445</t>
   </si>
   <si>
-    <t>10x Genomics; Xenium Custom Gene Expression Panel (51-100 genes); PN 1000561</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000444</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 64 rxns; PN 1000456</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
-  </si>
-  <si>
-    <t>10x Genomics; Xenium Human Colon Gene Expression Panel; PN 1000642</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000446</t>
-  </si>
-  <si>
-    <t>NanoString Technologies; CosMx Human Immuno-Oncology Panel (Protein, 64 Plex); PN CMX-H-IOP-64P-P</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000436</t>
-  </si>
-  <si>
     <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome, 4 rxns x 1 BC; PN 1000474</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000306</t>
   </si>
   <si>
-    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit - Small; PN 1000365</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
-  </si>
-  <si>
-    <t>10x Genomics; Xenium Human Lung Gene Expression Panel; PN 1000601</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000443</t>
-  </si>
-  <si>
     <t>NanoString Technologies; CosMx Human Universal Cell Characterization Panel (RNA, 1000 Plex); PN CMX-H-USCP-1KP-R</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000430</t>
   </si>
   <si>
-    <t>NanoString Technologies; CosMx Mouse Neuroscience Panel (Protein, 64 Plex); PN CMX-M-Neuro-64P-P</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000437</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 16 rxns; PN 1000420</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000382</t>
   </si>
   <si>
+    <t>NanoString Technologies; CosMx Hs Univ Cell (RNA, 1000 Plex); PN 121500002</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000454</t>
+  </si>
+  <si>
     <t>is_custom_probes_used</t>
   </si>
   <si>
@@ -1576,7 +1600,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-08-15T09:10:02-07:00</t>
+    <t>2025-09-11T14:00:25-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1736,96 +1760,96 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="AF2" t="s" s="33">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +1867,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$75</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$76</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1896,7 +1920,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$24</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1922,10 +1946,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -1943,10 +1967,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -1964,18 +1988,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -1985,7 +2009,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1993,194 +2017,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -2198,12 +2246,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2227,30 +2275,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -2673,130 +2721,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2814,12 +2862,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2837,242 +2885,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3082,7 +3130,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3090,479 +3138,479 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>318</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>319</v>
@@ -3586,18 +3634,18 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>169</v>
+        <v>324</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>170</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>324</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>325</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65">
@@ -3686,6 +3734,14 @@
       </c>
       <c r="B75" t="s" s="0">
         <v>347</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3703,42 +3759,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3756,26 +3812,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3793,18 +3849,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/cosmx-transcriptomics/v2.0.0/cosmx-transcriptomics-v2.0.0.xlsx
+++ b/cosmx-transcriptomics/v2.0.0/cosmx-transcriptomics-v2.0.0.xlsx
@@ -1489,18 +1489,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
   </si>
   <si>
-    <t>NanoString Technologies; CosMx Hs WTX RNA Panel Kit, 2 slides: PN 121500047</t>
+    <t>10x Genomics; Xenium Human Lung Gene Expression Panel; PN 1000601</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000443</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Hs WTX RNA Panel Kit, 2 slides; PN 121500047</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000453</t>
   </si>
   <si>
-    <t>10x Genomics; Xenium Human Lung Gene Expression Panel; PN 1000601</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000443</t>
-  </si>
-  <si>
     <t>NanoString Technologies; CosMx Mouse Neuroscience Panel (Protein, 64 Plex); PN CMX-M-Neuro-64P-P</t>
   </si>
   <si>
@@ -1600,7 +1600,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-09-11T14:00:25-07:00</t>
+    <t>2025-09-15T07:59:06-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/cosmx-transcriptomics/v2.0.0/cosmx-transcriptomics-v2.0.0.xlsx
+++ b/cosmx-transcriptomics/v2.0.0/cosmx-transcriptomics-v2.0.0.xlsx
@@ -247,6 +247,20 @@
     </comment>
     <comment ref="AF1" authorId="1">
       <text>
+        <t>A semicolon separated list of non-shared files to be included in the dataset.
+The path assumes the files are located in the "TOP/non-global/" directory. For
+example, for the file is
+TOP/non-global/lab_processed/images/1-tissue-boundary.geojson the value of this
+field would be "./lab_processed/images/1-tissue-boundary.geojson". After ingest,
+these files will be copied to the appropriate locations within the respective
+dataset directory tree. This field is used for internal HuBMAP processing.
+Examples for GeoMx and PhenoCycler are provided in the File Locations
+documentation:
+https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee</t>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="1">
+      <text>
         <t>(Required) The string that serves as the definitive identifier for the metadata
 schema version and is readily interpretable by computers for data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
@@ -257,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="450">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -319,24 +333,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
-    <t>CosMx</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
-    <t>Seq-Scope</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
-  </si>
-  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -565,9 +579,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
-    <t>CosMx Transcriptomics</t>
-  </si>
-  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -1582,6 +1593,9 @@
     <t>anatomical_structure_id</t>
   </si>
   <si>
+    <t>non_global_files</t>
+  </si>
+  <si>
     <t>metadata_schema_id</t>
   </si>
   <si>
@@ -1600,7 +1614,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-09-15T07:59:06-07:00</t>
+    <t>2025-09-18T09:01:55-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1659,7 +1673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
@@ -1696,6 +1710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1706,7 +1721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1743,7 +1758,8 @@
     <col min="29" max="29" style="30" width="7.4296875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" style="31" width="21.44921875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" style="32" width="19.23828125" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" style="33" width="16.91796875" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" style="33" width="13.33984375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" style="34" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1760,95 +1776,98 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I1" t="s" s="1">
+        <v>349</v>
+      </c>
+      <c r="J1" t="s" s="1">
         <v>350</v>
       </c>
-      <c r="J1" t="s" s="1">
-        <v>351</v>
-      </c>
       <c r="K1" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="L1" t="s" s="1">
         <v>362</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>363</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>364</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>365</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>366</v>
       </c>
-      <c r="P1" t="s" s="1">
-        <v>367</v>
-      </c>
       <c r="Q1" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="R1" t="s" s="1">
         <v>372</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>373</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>374</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>375</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>376</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>377</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>378</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>379</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>380</v>
       </c>
-      <c r="Z1" t="s" s="1">
-        <v>381</v>
-      </c>
       <c r="AA1" t="s" s="1">
+        <v>435</v>
+      </c>
+      <c r="AB1" t="s" s="1">
         <v>436</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>437</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>438</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>439</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>440</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>441</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>102</v>
-      </c>
-      <c r="AF2" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="AG2" t="s" s="34">
         <v>442</v>
       </c>
     </row>
@@ -1946,10 +1965,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>360</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -1967,10 +1986,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>360</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -1988,18 +2007,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>352</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>353</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>360</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -2017,218 +2036,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>382</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>383</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>384</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>386</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>388</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>390</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>392</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>394</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>395</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>396</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>397</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>398</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>400</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>401</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>402</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>404</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>405</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>406</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>407</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>408</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>409</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>410</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>411</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>412</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>413</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>414</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>415</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>416</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>417</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>418</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>419</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>420</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>421</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>422</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>423</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>424</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>425</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>426</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>427</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>428</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>429</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>430</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>431</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>432</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>433</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>434</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -2246,12 +2265,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2308,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>445</v>
@@ -2721,130 +2740,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>110</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>112</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>114</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>116</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>118</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>120</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>122</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>124</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>126</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>128</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>130</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>132</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>134</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2862,12 +2881,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2885,242 +2904,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>140</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>142</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>144</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>146</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>148</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>150</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>152</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>153</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>154</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>155</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>156</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>157</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>158</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>159</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>160</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>161</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>162</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>164</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>166</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>168</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>170</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>172</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>174</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>176</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>178</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>180</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>181</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>182</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>183</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>184</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>185</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>186</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>187</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>188</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>190</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>191</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>192</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>193</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>194</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>195</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>196</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>197</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>198</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3138,474 +3157,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>201</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>202</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>203</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>205</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>207</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>209</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>210</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>211</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>212</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>213</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>214</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>215</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>217</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>218</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>219</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>220</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>221</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>223</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>225</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>226</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>227</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>228</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>229</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>230</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>231</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>232</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>233</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>234</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>235</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>237</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>238</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>239</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>240</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>241</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>243</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>245</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>247</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>249</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>250</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>251</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>253</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>255</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>257</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>259</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>260</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>261</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>262</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B32" t="s" s="0">
         <v>263</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>264</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>265</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>266</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>267</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>269</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>270</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>271</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>272</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B37" t="s" s="0">
         <v>273</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>274</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>275</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>276</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>277</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>278</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>279</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>280</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B41" t="s" s="0">
         <v>281</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>282</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B42" t="s" s="0">
         <v>283</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>284</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B43" t="s" s="0">
         <v>285</v>
-      </c>
-      <c r="B43" t="s" s="0">
-        <v>286</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B44" t="s" s="0">
         <v>287</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>288</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B45" t="s" s="0">
         <v>289</v>
-      </c>
-      <c r="B45" t="s" s="0">
-        <v>290</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B46" t="s" s="0">
         <v>291</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>292</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B47" t="s" s="0">
         <v>293</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>294</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B48" t="s" s="0">
         <v>295</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>296</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B49" t="s" s="0">
         <v>297</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>298</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B50" t="s" s="0">
         <v>299</v>
-      </c>
-      <c r="B50" t="s" s="0">
-        <v>300</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B51" t="s" s="0">
         <v>301</v>
-      </c>
-      <c r="B51" t="s" s="0">
-        <v>302</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B52" t="s" s="0">
         <v>303</v>
-      </c>
-      <c r="B52" t="s" s="0">
-        <v>304</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B53" t="s" s="0">
         <v>305</v>
-      </c>
-      <c r="B53" t="s" s="0">
-        <v>306</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B54" t="s" s="0">
         <v>307</v>
-      </c>
-      <c r="B54" t="s" s="0">
-        <v>308</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B55" t="s" s="0">
         <v>309</v>
-      </c>
-      <c r="B55" t="s" s="0">
-        <v>310</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B56" t="s" s="0">
         <v>311</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>312</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="B57" t="s" s="0">
         <v>313</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>314</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B58" t="s" s="0">
         <v>315</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>316</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="B59" t="s" s="0">
         <v>317</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>318</v>
       </c>
     </row>
     <row r="60">
@@ -3613,135 +3632,135 @@
         <v>66</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B61" t="s" s="0">
         <v>320</v>
-      </c>
-      <c r="B61" t="s" s="0">
-        <v>321</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B62" t="s" s="0">
         <v>322</v>
-      </c>
-      <c r="B62" t="s" s="0">
-        <v>323</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B63" t="s" s="0">
         <v>324</v>
-      </c>
-      <c r="B63" t="s" s="0">
-        <v>325</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s" s="0">
         <v>170</v>
-      </c>
-      <c r="B64" t="s" s="0">
-        <v>171</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B65" t="s" s="0">
         <v>326</v>
-      </c>
-      <c r="B65" t="s" s="0">
-        <v>327</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B66" t="s" s="0">
         <v>328</v>
-      </c>
-      <c r="B66" t="s" s="0">
-        <v>329</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B67" t="s" s="0">
         <v>330</v>
-      </c>
-      <c r="B67" t="s" s="0">
-        <v>331</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="B68" t="s" s="0">
         <v>332</v>
-      </c>
-      <c r="B68" t="s" s="0">
-        <v>333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="B69" t="s" s="0">
         <v>334</v>
-      </c>
-      <c r="B69" t="s" s="0">
-        <v>335</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B70" t="s" s="0">
         <v>336</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>337</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B71" t="s" s="0">
         <v>338</v>
-      </c>
-      <c r="B71" t="s" s="0">
-        <v>339</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B72" t="s" s="0">
         <v>340</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>341</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B73" t="s" s="0">
         <v>342</v>
-      </c>
-      <c r="B73" t="s" s="0">
-        <v>343</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B74" t="s" s="0">
         <v>344</v>
-      </c>
-      <c r="B74" t="s" s="0">
-        <v>345</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B75" t="s" s="0">
         <v>346</v>
-      </c>
-      <c r="B75" t="s" s="0">
-        <v>347</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B76" t="s" s="0">
         <v>348</v>
-      </c>
-      <c r="B76" t="s" s="0">
-        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3759,42 +3778,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>352</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>353</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>354</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>356</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>358</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>360</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3812,26 +3831,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>354</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>355</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>356</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>358</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3849,18 +3868,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>368</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>369</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>370</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/cosmx-transcriptomics/v2.0.0/cosmx-transcriptomics-v2.0.0.xlsx
+++ b/cosmx-transcriptomics/v2.0.0/cosmx-transcriptomics-v2.0.0.xlsx
@@ -247,20 +247,6 @@
     </comment>
     <comment ref="AF1" authorId="1">
       <text>
-        <t>A semicolon separated list of non-shared files to be included in the dataset.
-The path assumes the files are located in the "TOP/non-global/" directory. For
-example, for the file is
-TOP/non-global/lab_processed/images/1-tissue-boundary.geojson the value of this
-field would be "./lab_processed/images/1-tissue-boundary.geojson". After ingest,
-these files will be copied to the appropriate locations within the respective
-dataset directory tree. This field is used for internal HuBMAP processing.
-Examples for GeoMx and PhenoCycler are provided in the File Locations
-documentation:
-https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee</t>
-      </text>
-    </comment>
-    <comment ref="AG1" authorId="1">
-      <text>
         <t>(Required) The string that serves as the definitive identifier for the metadata
 schema version and is readily interpretable by computers for data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
@@ -271,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="449">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1593,9 +1579,6 @@
     <t>anatomical_structure_id</t>
   </si>
   <si>
-    <t>non_global_files</t>
-  </si>
-  <si>
     <t>metadata_schema_id</t>
   </si>
   <si>
@@ -1614,7 +1597,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-09-18T09:01:55-07:00</t>
+    <t>2025-09-18T12:34:44-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1673,7 +1656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
@@ -1710,7 +1693,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1721,7 +1703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1758,8 +1740,7 @@
     <col min="29" max="29" style="30" width="7.4296875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" style="31" width="21.44921875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" style="32" width="19.23828125" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" style="33" width="13.33984375" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" style="34" width="16.91796875" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" style="33" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1859,16 +1840,13 @@
       <c r="AF1" t="s" s="1">
         <v>440</v>
       </c>
-      <c r="AG1" t="s" s="1">
-        <v>441</v>
-      </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="AG2" t="s" s="34">
-        <v>442</v>
+      <c r="AF2" t="s" s="33">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -2294,16 +2272,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>443</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>444</v>
-      </c>
       <c r="C1" t="s" s="0">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2">
@@ -2311,13 +2289,13 @@
         <v>24</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
